--- a/inst/extdata/topics.xlsx
+++ b/inst/extdata/topics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="keywords for tool" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Avian influenza</t>
-  </si>
-  <si>
-    <t>h1n1 OR h5n1 OR h3n2 OR h2n2 OR "avian flu" OR "bird flu" OR "gripe aviar" OR "grippe aviaire" OR 2gripe aviária"</t>
   </si>
   <si>
     <t>Chikungunya</t>
@@ -527,6 +524,9 @@
   </si>
   <si>
     <t>"e. coli producteurs de shigatoxines" OR "e. coli produtora de toxina shiga" OR "e. coli shiga-toxigênica" OR "e. coli shigatoxigênica" OR "e. coli vero-toxigênica" OR "e. coli verotoxigênica"</t>
+  </si>
+  <si>
+    <t>h1n1 OR h5n1 OR h3n2 OR h2n2 OR "avian flu" OR "bird flu" OR "gripe aviar" OR "grippe aviaire" OR "gripe aviária"</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1225,7 @@
         <v>0.05</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1244,19 +1244,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.05</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
@@ -1306,19 +1306,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -1337,19 +1337,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.05</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.05</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -1368,19 +1368,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.05</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -1399,10 +1399,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>2.5000000000000001E-2</v>
@@ -1411,7 +1411,7 @@
         <v>0.05</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
@@ -1430,19 +1430,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.05</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
@@ -1461,19 +1461,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
@@ -1492,10 +1492,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>2.5000000000000001E-2</v>
@@ -1504,7 +1504,7 @@
         <v>0.05</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
@@ -1523,19 +1523,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E17">
-        <v>0.05</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
@@ -1554,19 +1554,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E18">
-        <v>0.05</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
@@ -1585,19 +1585,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E19">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -1616,10 +1616,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20">
         <v>2.5000000000000001E-2</v>
@@ -1628,7 +1628,7 @@
         <v>0.05</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
@@ -1647,19 +1647,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.05</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.05</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
@@ -1678,19 +1678,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
@@ -1709,19 +1709,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E23">
-        <v>0.05</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
@@ -1740,19 +1740,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E24">
-        <v>0.05</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -1771,19 +1771,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E25">
-        <v>0.05</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
@@ -1802,19 +1802,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E26">
-        <v>0.05</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
@@ -1833,19 +1833,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.05</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E27">
-        <v>0.05</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
@@ -1864,19 +1864,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.05</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E28">
-        <v>0.05</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
@@ -1895,19 +1895,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E29">
-        <v>0.05</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
@@ -1926,19 +1926,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E30">
-        <v>0.05</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -1957,19 +1957,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E31">
+        <v>0.05</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E31">
-        <v>0.05</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
@@ -1988,19 +1988,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E32">
-        <v>0.05</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
@@ -2019,19 +2019,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E33">
+        <v>0.05</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E33">
-        <v>0.05</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
@@ -2050,19 +2050,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E34">
+        <v>0.05</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E34">
-        <v>0.05</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G65" si="2">LEN(F34)</f>
@@ -2081,19 +2081,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E35">
+        <v>0.05</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E35">
-        <v>0.05</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G35">
         <f t="shared" si="2"/>
@@ -2112,19 +2112,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E36">
+        <v>0.05</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E36">
-        <v>0.05</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -2143,19 +2143,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E37">
+        <v>0.05</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E37">
-        <v>0.05</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G37">
         <f t="shared" si="2"/>
@@ -2174,19 +2174,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.05</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
@@ -2205,19 +2205,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E39">
+        <v>0.05</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E39">
-        <v>0.05</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
@@ -2236,19 +2236,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.05</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E40">
-        <v>0.05</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
@@ -2267,19 +2267,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E41">
-        <v>0.05</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
@@ -2298,19 +2298,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E42">
+        <v>0.05</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E42">
-        <v>0.05</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
@@ -2329,19 +2329,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E43">
-        <v>0.05</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
@@ -2360,10 +2360,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44">
         <v>2.5000000000000001E-2</v>
@@ -2372,7 +2372,7 @@
         <v>0.05</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
@@ -2391,19 +2391,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>0.05</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E45">
-        <v>0.05</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
@@ -2422,19 +2422,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E46">
+        <v>0.05</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C46" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E46">
-        <v>0.05</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
@@ -2453,19 +2453,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E47">
+        <v>0.05</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C47" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E47">
-        <v>0.05</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
@@ -2484,19 +2484,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.05</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E48">
-        <v>0.05</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
@@ -2515,19 +2515,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.05</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E49">
-        <v>0.05</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
@@ -2546,19 +2546,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.05</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E50">
-        <v>0.05</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
@@ -2577,19 +2577,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.05</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E51">
-        <v>0.05</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
@@ -2608,19 +2608,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.05</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C52" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E52">
-        <v>0.05</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
@@ -2639,19 +2639,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E53">
+        <v>0.05</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E53">
-        <v>0.05</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
@@ -2670,19 +2670,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E54">
+        <v>0.05</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E54">
-        <v>0.05</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
@@ -2701,19 +2701,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E55">
+        <v>0.05</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C55" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E55">
-        <v>0.05</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
@@ -2732,19 +2732,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E56">
+        <v>0.05</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E56">
-        <v>0.05</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
@@ -2763,19 +2763,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E57">
+        <v>0.05</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E57">
-        <v>0.05</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="G57">
         <f t="shared" si="2"/>
@@ -2794,19 +2794,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E58">
+        <v>0.05</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E58">
-        <v>0.05</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="G58">
         <f t="shared" si="2"/>
@@ -2825,10 +2825,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D59">
         <v>2.5000000000000001E-2</v>
@@ -2837,7 +2837,7 @@
         <v>0.05</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G59">
         <f t="shared" si="2"/>
@@ -2856,19 +2856,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E60">
+        <v>0.05</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E60">
-        <v>0.05</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="G60">
         <f t="shared" si="2"/>
@@ -2887,19 +2887,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.05</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E61">
-        <v>0.05</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
@@ -2918,19 +2918,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.05</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E62">
-        <v>0.05</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G62">
         <f t="shared" si="2"/>
@@ -2949,19 +2949,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D63">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E63">
-        <v>0.05</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G63">
         <f t="shared" si="2"/>
@@ -2980,19 +2980,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E64">
+        <v>0.05</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-      <c r="D64">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E64">
-        <v>0.05</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="G64">
         <f t="shared" si="2"/>
@@ -3011,19 +3011,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E65">
+        <v>0.05</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E65">
-        <v>0.05</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="G65">
         <f t="shared" si="2"/>
@@ -3042,19 +3042,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E66">
+        <v>0.05</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
-      </c>
-      <c r="D66">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E66">
-        <v>0.05</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G82" si="4">LEN(F66)</f>
@@ -3073,19 +3073,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E67">
+        <v>0.05</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C67" t="s">
-        <v>134</v>
-      </c>
-      <c r="D67">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E67">
-        <v>0.05</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G67">
         <f t="shared" si="4"/>
@@ -3104,10 +3104,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D68">
         <v>2.5000000000000001E-2</v>
@@ -3116,7 +3116,7 @@
         <v>0.05</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G68">
         <f t="shared" si="4"/>
@@ -3135,19 +3135,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E69">
+        <v>0.05</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C69" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E69">
-        <v>0.05</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="G69">
         <f t="shared" si="4"/>
@@ -3166,10 +3166,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D70">
         <v>2.5000000000000001E-2</v>
@@ -3178,7 +3178,7 @@
         <v>0.05</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G70">
         <f t="shared" si="4"/>
@@ -3197,19 +3197,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D71">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E71">
+        <v>0.05</v>
+      </c>
+      <c r="F71" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>140</v>
-      </c>
-      <c r="D71">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E71">
-        <v>0.05</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="G71">
         <f t="shared" si="4"/>
@@ -3228,19 +3228,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E72">
+        <v>0.05</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E72">
-        <v>0.05</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="G72">
         <f t="shared" si="4"/>
@@ -3259,19 +3259,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C73" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E73">
+        <v>0.05</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C73" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E73">
-        <v>0.05</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G73">
         <f t="shared" si="4"/>
@@ -3290,10 +3290,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74">
         <v>2.5000000000000001E-2</v>
@@ -3302,7 +3302,7 @@
         <v>0.05</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G74">
         <f t="shared" si="4"/>
@@ -3321,19 +3321,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E75">
+        <v>0.05</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C75" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E75">
-        <v>0.05</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="G75">
         <f t="shared" si="4"/>
@@ -3352,10 +3352,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D76">
         <v>2.5000000000000001E-2</v>
@@ -3364,7 +3364,7 @@
         <v>0.05</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G76">
         <f t="shared" si="4"/>
@@ -3383,19 +3383,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.05</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C77" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <v>0.05</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="G77">
         <f t="shared" si="4"/>
@@ -3414,19 +3414,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>152</v>
-      </c>
-      <c r="D78">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>0.05</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="G78">
         <f t="shared" si="4"/>
@@ -3445,19 +3445,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" t="s">
+        <v>153</v>
+      </c>
+      <c r="D79">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.05</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="C79" t="s">
-        <v>154</v>
-      </c>
-      <c r="D79">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E79">
-        <v>0.05</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="G79">
         <f t="shared" si="4"/>
@@ -3476,19 +3476,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.05</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="C80" t="s">
-        <v>156</v>
-      </c>
-      <c r="D80">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E80">
-        <v>0.05</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="G80">
         <f t="shared" si="4"/>
@@ -3507,19 +3507,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D81">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.05</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C81" t="s">
-        <v>158</v>
-      </c>
-      <c r="D81">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.05</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="G81">
         <f t="shared" si="4"/>
@@ -3538,10 +3538,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D82">
         <v>2.5000000000000001E-2</v>
@@ -3550,7 +3550,7 @@
         <v>0.05</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G82">
         <f t="shared" si="4"/>

--- a/inst/extdata/topics.xlsx
+++ b/inst/extdata/topics.xlsx
@@ -5,26 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lespinosa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\epitweetr_github\epitweetr\epitweetr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10830" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="keywords for tool" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
   <si>
     <t>#</t>
   </si>
@@ -502,9 +497,6 @@
     <t>Vectorborne diseases</t>
   </si>
   <si>
-    <t>(vectorborne AND (disease OR diseases) OR (("enfermedad transmitida" OR "enfermedades transmitidas") AND "por vectores") OR ((maladie OR maladies) AND "à transmission vectorielle") OR (("doença transmissível" OR "doenças transmissíveis") AND ("por vetor" OR "por vetores"))</t>
-  </si>
-  <si>
     <t>Foodborne diseases</t>
   </si>
   <si>
@@ -527,13 +519,53 @@
   </si>
   <si>
     <t>h1n1 OR h5n1 OR h3n2 OR h2n2 OR "avian flu" OR "bird flu" OR "gripe aviar" OR "grippe aviaire" OR "gripe aviária"</t>
+  </si>
+  <si>
+    <t>(vectorborne AND (disease OR diseases)) OR (("enfermedad transmitida" OR "enfermedades transmitidas") AND "por vectores") OR ((maladie OR maladies) AND "à transmission vectorielle") OR (("doença transmissível" OR "doenças transmissíveis") AND ("por vetor" OR "por vetores"))</t>
+  </si>
+  <si>
+    <t>COVID-19 outbreaks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(coronavirus OR "novel coronavirus" OR covid-19 OR sars-covid-2 OR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>covid19) AND (outbreak OR cluster OR school OR hospital OR university OR variant)</t>
+    </r>
+  </si>
+  <si>
+    <t>(coronavirus OR "novel coronavirus" OR covid-19 OR sars-covid-2 OR "novo coronavirus" OR covid19) AND (cluster OR eclosão OR surto OR escola OR variants)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(coronavirus OR covid-19 OR sars-covid-2 OR "nuevo coronavirus" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OR covid19) AND (brote OR universidad OR colegio OR escuela OR variante)</t>
+    </r>
+  </si>
+  <si>
+    <t>(coronavirus OR "novel coronavirus" OR covid-19 OR sars-covid-2 OR "nouveau coronavirus " OR covid19) AND (cluster OR épidémie OR école OR université OR hôpital OR variants)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -562,6 +594,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -584,7 +622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -600,6 +638,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1000,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1272,7 @@
         <v>0.05</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
@@ -1391,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1422,7 +1469,7 @@
         <v>24</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2352,7 +2399,7 @@
         <v>25</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -2383,7 +2430,7 @@
         <v>18</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3057,11 +3104,11 @@
         <v>132</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G82" si="4">LEN(F66)</f>
+        <f t="shared" ref="G66:G86" si="4">LEN(F66)</f>
         <v>46</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H82" si="5">LEN(TRIM(F66))-LEN(SUBSTITUTE(F66," ",""))+1</f>
+        <f t="shared" ref="H66:H86" si="5">LEN(TRIM(F66))-LEN(SUBSTITUTE(F66," ",""))+1</f>
         <v>5</v>
       </c>
       <c r="I66">
@@ -3158,7 +3205,7 @@
         <v>22</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3189,7 +3236,7 @@
         <v>22</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3223,349 +3270,441 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E72" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E73" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E75" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>141</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" t="s">
         <v>141</v>
       </c>
-      <c r="D72">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E72">
-        <v>0.05</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="D76">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.05</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G72">
+      <c r="G76">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="H72">
+      <c r="H76">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="I76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C77" t="s">
         <v>143</v>
       </c>
-      <c r="D73">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E73">
-        <v>0.05</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="D77">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E77">
+        <v>0.05</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G73">
+      <c r="G77">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
-      <c r="H73">
+      <c r="H77">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>127</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C78" t="s">
         <v>127</v>
       </c>
-      <c r="D74">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E74">
-        <v>0.05</v>
-      </c>
-      <c r="F74" s="1" t="s">
+      <c r="D78">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G74">
+      <c r="G78">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
-      <c r="H74">
+      <c r="H78">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="I78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
         <v>146</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" t="s">
         <v>146</v>
       </c>
-      <c r="D75">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E75">
-        <v>0.05</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D79">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E79">
+        <v>0.05</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G75">
+      <c r="G79">
         <f t="shared" si="4"/>
         <v>231</v>
       </c>
-      <c r="H75">
+      <c r="H79">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="I79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
         <v>146</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C80" t="s">
         <v>146</v>
       </c>
-      <c r="D76">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E76">
-        <v>0.05</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="D80">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.05</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G76">
+      <c r="G80">
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
-      <c r="H76">
+      <c r="H80">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>149</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C81" t="s">
         <v>149</v>
       </c>
-      <c r="D77">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E77">
-        <v>0.05</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="D81">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E81">
+        <v>0.05</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G77">
+      <c r="G81">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="H77">
+      <c r="H81">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>151</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
         <v>151</v>
       </c>
-      <c r="D78">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E78">
-        <v>0.05</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G78">
+      <c r="D82">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E82">
+        <v>0.05</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="4"/>
-        <v>273</v>
-      </c>
-      <c r="H78">
+        <v>274</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E83">
+        <v>0.05</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C79" t="s">
-        <v>153</v>
-      </c>
-      <c r="D79">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E79">
-        <v>0.05</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G79">
+      <c r="G83">
         <f t="shared" si="4"/>
         <v>215</v>
       </c>
-      <c r="H79">
+      <c r="H83">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="I83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E80">
-        <v>0.05</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G80">
+      <c r="G84">
         <f t="shared" si="4"/>
         <v>207</v>
       </c>
-      <c r="H80">
+      <c r="H84">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="I84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E85">
+        <v>0.05</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C81" t="s">
-        <v>157</v>
-      </c>
-      <c r="D81">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.05</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81">
+      <c r="G85">
         <f t="shared" si="4"/>
         <v>173</v>
       </c>
-      <c r="H81">
+      <c r="H85">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" t="s">
-        <v>157</v>
-      </c>
-      <c r="D82">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="E82">
-        <v>0.05</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G82">
+      <c r="I85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>156</v>
+      </c>
+      <c r="C86" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E86">
+        <v>0.05</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="H82">
+      <c r="H86">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="I82">
+      <c r="I86">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G105:G1048576 G2:G82">
+  <conditionalFormatting sqref="G109:G1048576 G2:G86">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="&quot;&lt;500&quot;"/>
@@ -3575,7 +3714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H82">
+  <conditionalFormatting sqref="H2:H86">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
@@ -3588,7 +3727,7 @@
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H82">
+  <conditionalFormatting sqref="H1:H86">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3596,7 +3735,7 @@
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G82">
+  <conditionalFormatting sqref="G2:G86">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>500</formula>
     </cfRule>

--- a/inst/extdata/topics.xlsx
+++ b/inst/extdata/topics.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\epitweetr_github\epitweetr\epitweetr\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lespinosa\github_repos\epitweetr\epitweetr\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC23A57-C53D-4AA2-8B2A-68CAD9D83CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10830" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="keywords for tool" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="168">
   <si>
     <t>#</t>
   </si>
@@ -560,11 +573,17 @@
   <si>
     <t>(coronavirus OR "novel coronavirus" OR covid-19 OR sars-covid-2 OR "nouveau coronavirus " OR covid19) AND (cluster OR épidémie OR école OR université OR hôpital OR variants)</t>
   </si>
+  <si>
+    <t>Monkeypox</t>
+  </si>
+  <si>
+    <t>monkeypox OR "viruela del mono" OR "viruela del simio" OR "variole du singe" OR "variola des macacos"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,6 +666,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1046,11 +1071,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3703,8 +3728,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" s="12">
+        <f t="shared" ref="G87" si="6">LEN(F87)</f>
+        <v>101</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" ref="H87" si="7">LEN(TRIM(F87))-LEN(SUBSTITUTE(F87," ",""))+1</f>
+        <v>17</v>
+      </c>
+      <c r="I87" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G109:G1048576 G2:G86">
+  <conditionalFormatting sqref="G108:G1048576 G2:G87">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="&quot;&lt;500&quot;"/>
@@ -3714,7 +3770,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H86">
+  <conditionalFormatting sqref="H2:H87">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
@@ -3727,7 +3783,7 @@
       <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H86">
+  <conditionalFormatting sqref="H1:H87">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3735,7 +3791,7 @@
       <formula>LEN(TRIM(H1))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G86">
+  <conditionalFormatting sqref="G2:G87">
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
       <formula>500</formula>
     </cfRule>
